--- a/battleshipBeta/battleship_traning.xlsx
+++ b/battleshipBeta/battleship_traning.xlsx
@@ -1,67 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ismail ALTAY\source\repos\battleshipBeta\battleshipBeta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29051D0-058D-43C2-870C-10B7071C57C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$12</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">firstname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lastname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İsmail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kadri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Çığ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berkay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uğur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hüseyin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ismail</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>Altay</t>
+  </si>
+  <si>
+    <t>Kadri</t>
+  </si>
+  <si>
+    <t>Demir</t>
+  </si>
+  <si>
+    <t>Ismail</t>
+  </si>
+  <si>
+    <t>Cig</t>
+  </si>
+  <si>
+    <t>Huseyin</t>
+  </si>
+  <si>
+    <t>Berkay</t>
+  </si>
+  <si>
+    <t>Ugur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,7 +94,7 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -100,18 +105,14 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,11 +377,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -398,35 +399,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -437,13 +438,18 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C12" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C12">
+      <sortCondition ref="C1:C12"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" caseSensitive="1" ref="A2:C11">
+    <sortCondition ref="C2:C11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="default"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>